--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt5a-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt5a-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,19 +88,10 @@
     <t>Fzd2</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H2">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1341725</v>
+        <v>0.1557005</v>
       </c>
       <c r="N2">
-        <v>0.268345</v>
+        <v>0.311401</v>
       </c>
       <c r="O2">
-        <v>0.01633512969336317</v>
+        <v>0.02102398211576467</v>
       </c>
       <c r="P2">
-        <v>0.01188426112752495</v>
+        <v>0.01500040222529337</v>
       </c>
       <c r="Q2">
-        <v>0.6197545846800001</v>
+        <v>0.0195583183075</v>
       </c>
       <c r="R2">
-        <v>3.71852750808</v>
+        <v>0.07823327323</v>
       </c>
       <c r="S2">
-        <v>0.01633512969336317</v>
+        <v>0.0005566054426318736</v>
       </c>
       <c r="T2">
-        <v>0.01188426112752495</v>
+        <v>0.000267112212760657</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H3">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +623,22 @@
         <v>17.771067</v>
       </c>
       <c r="O3">
-        <v>0.7211927040052828</v>
+        <v>0.7998659708565604</v>
       </c>
       <c r="P3">
-        <v>0.787031622511101</v>
+        <v>0.8560446272575798</v>
       </c>
       <c r="Q3">
-        <v>27.362040775632</v>
+        <v>0.744104193735</v>
       </c>
       <c r="R3">
-        <v>246.258366980688</v>
+        <v>4.464625162410001</v>
       </c>
       <c r="S3">
-        <v>0.7211927040052828</v>
+        <v>0.02117628098727082</v>
       </c>
       <c r="T3">
-        <v>0.787031622511101</v>
+        <v>0.01524358955009101</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H4">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.007277666666666666</v>
+        <v>0.024117</v>
       </c>
       <c r="N4">
-        <v>0.021833</v>
+        <v>0.072351</v>
       </c>
       <c r="O4">
-        <v>0.0008860357291178598</v>
+        <v>0.003256478795417461</v>
       </c>
       <c r="P4">
-        <v>0.0009669234500260938</v>
+        <v>0.003485197868350457</v>
       </c>
       <c r="Q4">
-        <v>0.033616182768</v>
+        <v>0.003029456955</v>
       </c>
       <c r="R4">
-        <v>0.302545644912</v>
+        <v>0.01817674173</v>
       </c>
       <c r="S4">
-        <v>0.0008860357291178598</v>
+        <v>8.621458158421389E-05</v>
       </c>
       <c r="T4">
-        <v>0.0009669234500260938</v>
+        <v>6.20609301365323E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H5">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,42 +741,42 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.927182</v>
+        <v>1.3023455</v>
       </c>
       <c r="N5">
-        <v>3.854364</v>
+        <v>2.604691</v>
       </c>
       <c r="O5">
-        <v>0.2346290626821072</v>
+        <v>0.1758535682322574</v>
       </c>
       <c r="P5">
-        <v>0.1706991680729343</v>
+        <v>0.1254697726487764</v>
       </c>
       <c r="Q5">
-        <v>8.901823250016001</v>
+        <v>0.1635941299825</v>
       </c>
       <c r="R5">
-        <v>53.410939500096</v>
+        <v>0.65437651993</v>
       </c>
       <c r="S5">
-        <v>0.2346290626821072</v>
+        <v>0.004655685713836042</v>
       </c>
       <c r="T5">
-        <v>0.1706991680729343</v>
+        <v>0.002234240662579017</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,54 +791,54 @@
         <v>13.857264</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.9735252132746771</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.9821929966444328</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1820473333333333</v>
+        <v>0.1557005</v>
       </c>
       <c r="N6">
-        <v>0.5461419999999999</v>
+        <v>0.311401</v>
       </c>
       <c r="O6">
-        <v>0.02216375785150397</v>
+        <v>0.02102398211576467</v>
       </c>
       <c r="P6">
-        <v>0.02418712530775207</v>
+        <v>0.01500040222529337</v>
       </c>
       <c r="Q6">
-        <v>0.840892652832</v>
+        <v>0.719194311144</v>
       </c>
       <c r="R6">
-        <v>7.568033875487999</v>
+        <v>4.315165866864</v>
       </c>
       <c r="S6">
-        <v>0.02216375785150397</v>
+        <v>0.02046737667313279</v>
       </c>
       <c r="T6">
-        <v>0.02418712530775207</v>
+        <v>0.01473329001253271</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +853,164 @@
         <v>13.857264</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.9735252132746771</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.9821929966444328</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5.923689</v>
+      </c>
+      <c r="N7">
+        <v>17.771067</v>
+      </c>
+      <c r="O7">
+        <v>0.7998659708565604</v>
+      </c>
+      <c r="P7">
+        <v>0.8560446272575798</v>
+      </c>
+      <c r="Q7">
+        <v>27.362040775632</v>
+      </c>
+      <c r="R7">
+        <v>246.258366980688</v>
+      </c>
+      <c r="S7">
+        <v>0.7786896898692897</v>
+      </c>
+      <c r="T7">
+        <v>0.8408010377074888</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H8">
+        <v>13.857264</v>
+      </c>
+      <c r="I8">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J8">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M7">
-        <v>0.039371</v>
-      </c>
-      <c r="N7">
-        <v>0.118113</v>
-      </c>
-      <c r="O7">
-        <v>0.004793310038624916</v>
-      </c>
-      <c r="P7">
-        <v>0.005230899530661477</v>
-      </c>
-      <c r="Q7">
-        <v>0.181858113648</v>
-      </c>
-      <c r="R7">
-        <v>1.636723022832</v>
-      </c>
-      <c r="S7">
-        <v>0.004793310038624916</v>
-      </c>
-      <c r="T7">
-        <v>0.005230899530661477</v>
+      <c r="M8">
+        <v>0.024117</v>
+      </c>
+      <c r="N8">
+        <v>0.072351</v>
+      </c>
+      <c r="O8">
+        <v>0.003256478795417461</v>
+      </c>
+      <c r="P8">
+        <v>0.003485197868350457</v>
+      </c>
+      <c r="Q8">
+        <v>0.111398545296</v>
+      </c>
+      <c r="R8">
+        <v>1.002586907664</v>
+      </c>
+      <c r="S8">
+        <v>0.003170264213833247</v>
+      </c>
+      <c r="T8">
+        <v>0.003423136938213925</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H9">
+        <v>13.857264</v>
+      </c>
+      <c r="I9">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J9">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.3023455</v>
+      </c>
+      <c r="N9">
+        <v>2.604691</v>
+      </c>
+      <c r="O9">
+        <v>0.1758535682322574</v>
+      </c>
+      <c r="P9">
+        <v>0.1254697726487764</v>
+      </c>
+      <c r="Q9">
+        <v>6.015648470904001</v>
+      </c>
+      <c r="R9">
+        <v>36.093890825424</v>
+      </c>
+      <c r="S9">
+        <v>0.1711978825184213</v>
+      </c>
+      <c r="T9">
+        <v>0.1232355319861974</v>
       </c>
     </row>
   </sheetData>
